--- a/log_history/Y4_B2526_Immuno_hema_scanner1761666462999_0e1e1ba5480946aa7c56dbee4e327af15b69899b5f83efc9cc524e655fce6bd8.xlsx
+++ b/log_history/Y4_B2526_Immuno_hema_scanner1761666462999_0e1e1ba5480946aa7c56dbee4e327af15b69899b5f83efc9cc524e655fce6bd8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133D0918-2EE1-477A-B6B7-F8CD13526342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9543D27C-149C-4C60-9349-BE7DF71FD155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{241A7BEE-B3E5-6543-AD8B-F0807EB3FAB6}"/>
   </bookViews>
@@ -69,6 +69,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -101,7 +104,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +442,14 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="10.6640625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -451,10 +458,10 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
